--- a/reports/corpus_dwi-unigram_bigram_trigram-fold-1.xlsx
+++ b/reports/corpus_dwi-unigram_bigram_trigram-fold-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,125 +477,130 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>CON</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>DM</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>DT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>FW</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>JJ</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>NEG</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>NNG</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>NNP</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>PRL</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>PRN</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>PRP</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>RB</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>RP</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>SYM</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>UH</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>VBGT</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>VBI</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>VBT</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>WP</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>macro avg</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -611,103 +616,106 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7045454545454546</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6395348837209303</v>
+        <v>0.9418604651162791</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8805031446540881</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6267605633802817</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1462264150943396</v>
+        <v>0.9647887323943662</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.6462264150943396</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6075949367088608</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9925373134328358</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08888888888888889</v>
+        <v>0.9738805970149254</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3294117647058823</v>
+        <v>0.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6146788990825688</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3574660633484163</v>
+        <v>0.9495412844036697</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4318181818181818</v>
+        <v>0.8009049773755657</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.9401709401709402</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.09282700421940929</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2775800711743772</v>
+        <v>0.5021097046413502</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.6156583629893239</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.5702909647779479</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.3381371034355048</v>
+        <v>0.8297090352220521</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.8486259048120669</v>
+        <v>0.6269342030054612</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.8861309272963455</v>
       </c>
     </row>
     <row r="3">
@@ -729,94 +737,97 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9716312056737588</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.9133333333333333</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2789722076560042</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.5246231155778894</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.9438202247191011</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9753086419753086</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.9888268156424581</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6285714285714286</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.9512195121951219</v>
+        <v>0.8206896551724138</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0.9402173913043478</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.5702909647779479</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.6986401955795656</v>
+        <v>0.8297090352220521</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.5702909647779479</v>
+        <v>0.7282110760699578</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.8297090352220521</v>
       </c>
     </row>
     <row r="4">
@@ -829,103 +840,106 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8266666666666667</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3333333333333334</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.9364161849710984</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9364548494983278</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.9904761904761905</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7705627705627706</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.253061224489796</v>
+        <v>0.9681978798586572</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6774193548387097</v>
+        <v>0.7569060773480664</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.75</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4355300859598853</v>
+        <v>0.975</v>
       </c>
       <c r="S4" t="n">
-        <v>0.163265306122449</v>
+        <v>0.6819072501632919</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4912280701754386</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6486486486486486</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7613636363636362</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5231788079470199</v>
+        <v>0.9695550351288056</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5984251968503937</v>
+        <v>0.885</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8181818181818181</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.9649122807017545</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.5454545454545454</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1617647058823529</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.4297520661157024</v>
+        <v>0.6230366492146597</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.7440860215053763</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5702909647779479</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.4088440689344046</v>
+        <v>0.8297090352220521</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5661549805255115</v>
+        <v>0.658992543107188</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.8290389954031859</v>
       </c>
     </row>
     <row r="5">
@@ -938,102 +952,105 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F5" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>141</v>
+      </c>
+      <c r="P5" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>41</v>
+      </c>
+      <c r="R5" t="n">
+        <v>81</v>
+      </c>
+      <c r="S5" t="n">
+        <v>995</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18</v>
+      </c>
+      <c r="U5" t="n">
         <v>89</v>
       </c>
-      <c r="O5" t="n">
-        <v>33</v>
-      </c>
-      <c r="P5" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>49</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1907</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>58</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W5" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="Y5" t="n">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="Z5" t="n">
         <v>81</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.5702909647779479</v>
+        <v>28</v>
       </c>
       <c r="AH5" t="n">
+        <v>0.8297090352220521</v>
+      </c>
+      <c r="AI5" t="n">
         <v>3265</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>3265</v>
       </c>
     </row>

--- a/reports/corpus_dwi-unigram_bigram_trigram-fold-1.xlsx
+++ b/reports/corpus_dwi-unigram_bigram_trigram-fold-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,173 +434,157 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>CDC</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CDC</t>
+          <t>CDI</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CDI</t>
+          <t>CDO</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>CDO</t>
+          <t>CDP</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>CDP</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>FW</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>DM</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>FW</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NNG</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>PRL</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>PRN</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NNP</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>PRN</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>PRP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>SYM</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>RP</t>
+          <t>UH</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VBI</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>VBT</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>UH</t>
+          <t>WP</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>VBGT</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>VBI</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>VBT</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -613,7 +597,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -622,100 +606,88 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9651162790697675</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9418604651162791</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.9647887323943662</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9811320754716981</v>
+        <v>0.6462264150943396</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9647887323943662</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6462264150943396</v>
+        <v>0.9739292364990689</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.975609756097561</v>
+        <v>0.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9873417721518988</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9738805970149254</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4941176470588236</v>
+        <v>0.9495412844036697</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8009049773755657</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9495412844036697</v>
+        <v>0.9401709401709402</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8009049773755657</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9401709401709402</v>
+        <v>0.5021097046413502</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>0.8312404287901991</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5021097046413502</v>
+        <v>0.7173979494039902</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6156583629893239</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.8297090352220521</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.6269342030054612</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.8861309272963455</v>
+        <v>0.8874407191144791</v>
       </c>
     </row>
     <row r="3">
@@ -725,7 +697,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -734,100 +706,88 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9325842696629213</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.9716312056737588</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.9133333333333333</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9716312056737588</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.5256281407035176</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
+        <v>0.9438202247191011</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.9904306220095693</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.9888268156424581</v>
+      </c>
+      <c r="W3" t="n">
         <v>0.9629629629629629</v>
       </c>
-      <c r="S3" t="n">
-        <v>0.5246231155778894</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.9438202247191011</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>0.9904306220095693</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9888268156424581</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9629629629629629</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.990990990990991</v>
+        <v>0.8206896551724138</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>0.9456521739130435</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>0.8312404287901991</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.8206896551724138</v>
+        <v>0.8333976525992755</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.9402173913043478</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.8297090352220521</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.7282110760699578</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.8297090352220521</v>
+        <v>0.8312404287901991</v>
       </c>
     </row>
     <row r="4">
@@ -837,7 +797,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,100 +806,88 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9485714285714285</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9364161849710984</v>
+        <v>0.25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.25</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="H4" t="n">
-        <v>0.918918918918919</v>
+        <v>0.8</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9904761904761905</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.9681978798586572</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9904761904761905</v>
+        <v>0.7569060773480664</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9681978798586572</v>
+        <v>0.975</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7569060773480664</v>
+        <v>0.6827676240208878</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.975609756097561</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="R4" t="n">
-        <v>0.975</v>
+        <v>0.6486486486486486</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6819072501632919</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6486486486486486</v>
+        <v>0.9695550351288056</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.885</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9695550351288056</v>
+        <v>0.9649122807017545</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.885</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.923076923076923</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9649122807017545</v>
+        <v>0.6230366492146597</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>0.7467811158798282</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>0.8312404287901991</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6230366492146597</v>
+        <v>0.7541362193712052</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.7440860215053763</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.9824561403508771</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.8297090352220521</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.658992543107188</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.8290389954031859</v>
+        <v>0.8305130053572332</v>
       </c>
     </row>
     <row r="5">
@@ -949,108 +897,96 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="C5" t="n">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="E5" t="n">
-        <v>300</v>
+        <v>89</v>
       </c>
       <c r="F5" t="n">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
+        <v>18</v>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>34</v>
+      </c>
+      <c r="J5" t="n">
+        <v>156</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>141</v>
+      </c>
+      <c r="M5" t="n">
+        <v>150</v>
+      </c>
+      <c r="N5" t="n">
+        <v>41</v>
+      </c>
+      <c r="O5" t="n">
+        <v>81</v>
+      </c>
+      <c r="P5" t="n">
+        <v>995</v>
+      </c>
+      <c r="Q5" t="n">
         <v>18</v>
       </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>34</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>156</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>141</v>
-      </c>
-      <c r="P5" t="n">
-        <v>150</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>41</v>
-      </c>
       <c r="R5" t="n">
+        <v>89</v>
+      </c>
+      <c r="S5" t="n">
+        <v>20</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>209</v>
+      </c>
+      <c r="V5" t="n">
+        <v>179</v>
+      </c>
+      <c r="W5" t="n">
         <v>81</v>
       </c>
-      <c r="S5" t="n">
-        <v>995</v>
-      </c>
-      <c r="T5" t="n">
-        <v>18</v>
-      </c>
-      <c r="U5" t="n">
-        <v>89</v>
-      </c>
-      <c r="V5" t="n">
-        <v>20</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="Y5" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.8312404287901991</v>
       </c>
       <c r="AE5" t="n">
-        <v>145</v>
+        <v>3265</v>
       </c>
       <c r="AF5" t="n">
-        <v>184</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.8297090352220521</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>3265</v>
-      </c>
-      <c r="AJ5" t="n">
         <v>3265</v>
       </c>
     </row>
